--- a/Functional Performance data.xlsx
+++ b/Functional Performance data.xlsx
@@ -998,24 +998,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1029,9 +1011,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1039,15 +1018,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1076,6 +1046,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,7 +1164,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1470,9 +1470,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO" sz="1200" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:rPr lang="es-CO" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1509,7 +1512,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1547,7 +1550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148775248"/>
@@ -1637,7 +1640,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148772504"/>
@@ -1690,8 +1693,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80480622677053926"/>
-          <c:y val="0.4461135197881908"/>
+          <c:x val="0.79080368889346786"/>
+          <c:y val="0.44041670414100181"/>
           <c:w val="0.15203331512202936"/>
           <c:h val="0.19122478743825833"/>
         </c:manualLayout>
@@ -1721,7 +1724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1751,7 +1754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1841,7 +1844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2058,7 +2061,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO" sz="1200" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:t>Participant</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2096,7 +2099,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2133,7 +2136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="8672960"/>
@@ -2223,7 +2226,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2255,7 +2258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148767800"/>
@@ -2298,7 +2301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2328,7 +2331,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2418,7 +2421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2634,9 +2637,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:rPr lang="es-CO" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2673,7 +2679,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2710,7 +2716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177885872"/>
@@ -2800,7 +2806,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2832,7 +2838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177891752"/>
@@ -2875,7 +2881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2915,7 +2921,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2973,7 +2979,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>20mWT (paso veloz)</a:t>
+              <a:t>20mWT (fast pace)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3005,7 +3011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3221,9 +3227,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO" sz="1200" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:rPr lang="es-CO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3260,7 +3269,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3297,7 +3306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177889400"/>
@@ -3358,8 +3367,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1409425367095884E-2"/>
-              <c:y val="0.28654700752093865"/>
+              <c:x val="2.1409414131603594E-2"/>
+              <c:y val="0.37287795323674089"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3387,7 +3396,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3419,7 +3428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177889008"/>
@@ -3462,7 +3471,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3492,7 +3501,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3589,7 +3598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3805,9 +3814,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO" sz="1200" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:rPr lang="es-CO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3844,7 +3856,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3881,7 +3893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177891360"/>
@@ -3971,7 +3983,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4003,7 +4015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177892536"/>
@@ -4046,7 +4058,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4076,7 +4088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4166,7 +4178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4382,9 +4394,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CO" sz="1200" b="1"/>
-                  <a:t>Paciente</a:t>
+                  <a:rPr lang="es-CO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
                 </a:r>
+                <a:endParaRPr lang="es-CO" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4421,7 +4436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4458,7 +4473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177892144"/>
@@ -4548,7 +4563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4580,7 +4595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177887440"/>
@@ -4623,7 +4638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4653,7 +4668,587 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="es-CO" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>20mWT (fast pace)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="es-CO" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10497242621005093"/>
+          <c:y val="0.13284947052002666"/>
+          <c:w val="0.71469939692908668"/>
+          <c:h val="0.71467362452652494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Conventional</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Todas!$C$19,Todas!$F$19,Todas!$I$19,Todas!$L$19,Todas!$O$19,Todas!$R$19,Todas!$U$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4705882352941178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3458950201884254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0917030567685588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4224751066856329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4684287812041117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4224751066856329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4738393515106853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1737-4171-AC1B-DC6D6CFF0B67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ATK-PA-01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Todas!$D$19,Todas!$G$19,Todas!$J$19,Todas!$M$19,Todas!$P$19,Todas!$S$19,Todas!$V$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4064697609001406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0928961748633879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5735641227380015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4781966001478197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4609203798392989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3812154696132597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1737-4171-AC1B-DC6D6CFF0B67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3P26</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Todas!$E$19,Todas!$H$19,Todas!$K$19,Todas!$N$19,Todas!$Q$19,Todas!$T$19,Todas!$W$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3596193065941535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0454783063251438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91282519397535367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1389521640091116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1723329425556859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1723329425556859</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1661807580174928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1737-4171-AC1B-DC6D6CFF0B67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="177889008"/>
+        <c:axId val="177889400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="177889008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Participant</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42906237531748798"/>
+              <c:y val="0.91282048074596944"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177889400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177889400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1200" b="1"/>
+                  <a:t>Speed [m/seg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1409425367095884E-2"/>
+              <c:y val="0.28654700752093865"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177889008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4904,6 +5499,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -7430,6 +8065,511 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7939,15 +9079,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>328084</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>641048</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>423334</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8002,16 +9142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>615344</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>111880</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84665</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>657678</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>143631</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>99785</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61989</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8123,6 +9263,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>566964</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>167823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8420,8 +9592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8474,54 +9646,54 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="75">
+      <c r="C2" s="96">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="69">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="52">
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="90">
         <v>3</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52">
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="90">
         <v>4</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="52">
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="90">
         <v>5</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="52">
+      <c r="P2" s="91"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="90">
         <v>6</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="52">
+      <c r="S2" s="91"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="90">
         <v>7</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="68" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="63" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -8577,22 +9749,22 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="70">
         <v>53</v>
       </c>
       <c r="D4" s="35">
         <v>52</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="71">
         <v>37</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="64">
         <v>43</v>
       </c>
       <c r="G4" s="9">
@@ -8648,17 +9820,17 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="72">
         <v>57.3</v>
       </c>
       <c r="D5" s="36">
         <v>56.3</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="73">
         <v>45.2</v>
       </c>
       <c r="F5" s="7">
@@ -8717,17 +9889,17 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="72">
         <v>2.5</v>
       </c>
       <c r="D6" s="2">
         <v>2.4</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="73">
         <v>1.9</v>
       </c>
       <c r="F6" s="7">
@@ -8786,20 +9958,20 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="74">
         <v>0.76700000000000002</v>
       </c>
       <c r="D7" s="23">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="75">
         <v>0.315</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="65">
         <v>0.46400000000000002</v>
       </c>
       <c r="G7" s="23">
@@ -8855,22 +10027,22 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="70">
         <v>176.5</v>
       </c>
       <c r="D8" s="9">
         <v>168.6</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="76">
         <v>157</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="64">
         <v>163.4</v>
       </c>
       <c r="G8" s="9">
@@ -8926,8 +10098,8 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="41">
@@ -8938,7 +10110,7 @@
         <f t="shared" si="0"/>
         <v>5.0579999999999998</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="77">
         <f t="shared" si="0"/>
         <v>4.71</v>
       </c>
@@ -9016,11 +10188,11 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="78">
         <f t="shared" ref="C10:N10" si="2">C8/120</f>
         <v>1.4708333333333334</v>
       </c>
@@ -9028,7 +10200,7 @@
         <f t="shared" si="2"/>
         <v>1.405</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="79">
         <f t="shared" si="2"/>
         <v>1.3083333333333333</v>
       </c>
@@ -9105,22 +10277,22 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="70">
         <v>75</v>
       </c>
       <c r="D11" s="9">
         <v>74</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="76">
         <v>93</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="64">
         <v>78</v>
       </c>
       <c r="G11" s="9">
@@ -9176,17 +10348,17 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="72">
         <v>104</v>
       </c>
       <c r="D12" s="2">
         <v>104</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="73">
         <v>102</v>
       </c>
       <c r="F12" s="7">
@@ -9245,17 +10417,17 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="72">
         <v>97</v>
       </c>
       <c r="D13" s="2">
         <v>98</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="73">
         <v>98</v>
       </c>
       <c r="F13" s="7">
@@ -9314,17 +10486,17 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="64" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="72">
         <v>98</v>
       </c>
       <c r="D14" s="2">
         <v>97</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="73">
         <v>97</v>
       </c>
       <c r="F14" s="7">
@@ -9382,113 +10554,113 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="59" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="1:23" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="95"/>
+      <c r="B15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="80">
         <f>((C12-C11)/60)/C10</f>
         <v>0.32861189801699714</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="51">
         <f t="shared" ref="D15:N15" si="4">((D12-D11)/60)/D10</f>
         <v>0.35587188612099646</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="81">
         <f t="shared" si="4"/>
         <v>0.11464968152866241</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="51">
         <f t="shared" si="4"/>
         <v>0.25703794369645039</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="51">
         <f t="shared" si="4"/>
         <v>0.49382716049382708</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="51">
         <f t="shared" si="4"/>
         <v>0.56716417910447758</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="50">
         <f t="shared" si="4"/>
         <v>0.57823129251700678</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="51">
         <f t="shared" si="4"/>
         <v>0.81739130434782603</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="51">
         <f t="shared" si="4"/>
         <v>0.67961165048543692</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="50">
         <f t="shared" si="4"/>
         <v>0.38993710691823902</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="51">
         <f t="shared" si="4"/>
         <v>0.47470331043098057</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="51">
         <f t="shared" si="4"/>
         <v>0.66536203522504889</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="50">
         <f t="shared" ref="O15:W15" si="5">((O12-O11)/60)/O10</f>
         <v>0.40524433849821212</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="51">
         <f t="shared" si="5"/>
         <v>0.94551282051282048</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="51">
         <f t="shared" si="5"/>
         <v>0.62794348508634212</v>
       </c>
-      <c r="R15" s="56">
+      <c r="R15" s="50">
         <f t="shared" si="5"/>
         <v>0.210896309314587</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="51">
         <f t="shared" si="5"/>
         <v>0.28776978417266186</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="51">
         <f t="shared" si="5"/>
         <v>0.29368575624082233</v>
       </c>
-      <c r="U15" s="56">
+      <c r="U15" s="50">
         <f t="shared" si="5"/>
         <v>0.30514939605848695</v>
       </c>
-      <c r="V15" s="57">
+      <c r="V15" s="51">
         <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
-      <c r="W15" s="58">
+      <c r="W15" s="52">
         <f t="shared" si="5"/>
         <v>0.17049180327868854</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="70">
         <v>15.3</v>
       </c>
       <c r="D16" s="9">
         <v>17</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="82">
         <v>17.62</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="64">
         <v>15.81</v>
       </c>
       <c r="G16" s="9">
@@ -9544,17 +10716,17 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="64" t="s">
+      <c r="A17" s="94"/>
+      <c r="B17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="72">
         <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="73">
         <v>15</v>
       </c>
       <c r="F17" s="7">
@@ -9613,17 +10785,17 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="72">
         <v>13.6</v>
       </c>
       <c r="D18" s="2">
         <v>12.8</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="73">
         <v>14.71</v>
       </c>
       <c r="F18" s="7">
@@ -9681,111 +10853,111 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="1:23" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="83">
         <f>20/C18</f>
         <v>1.4705882352941178</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="54">
         <f>20/D18</f>
         <v>1.5625</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="84">
         <f>20/E18</f>
         <v>1.3596193065941535</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="66">
         <f t="shared" ref="F19:W19" si="6">20/F18</f>
         <v>1.3458950201884254</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="55">
         <f t="shared" si="6"/>
         <v>1.4064697609001406</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="55">
         <f t="shared" si="6"/>
         <v>1.0454783063251438</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="55">
         <f t="shared" si="6"/>
         <v>1.0917030567685588</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="55">
         <f t="shared" si="6"/>
         <v>1.0928961748633879</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="55">
         <f t="shared" si="6"/>
         <v>0.91282519397535367</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="55">
         <f t="shared" si="6"/>
         <v>1.4224751066856329</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="55">
         <f t="shared" si="6"/>
         <v>1.5735641227380015</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="55">
         <f t="shared" si="6"/>
         <v>1.1389521640091116</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="55">
         <f>20/O18</f>
         <v>1.4684287812041117</v>
       </c>
-      <c r="P19" s="61">
+      <c r="P19" s="55">
         <f t="shared" si="6"/>
         <v>1.4781966001478197</v>
       </c>
-      <c r="Q19" s="61">
+      <c r="Q19" s="55">
         <f t="shared" si="6"/>
         <v>1.1723329425556859</v>
       </c>
-      <c r="R19" s="61">
+      <c r="R19" s="55">
         <f t="shared" si="6"/>
         <v>1.4224751066856329</v>
       </c>
-      <c r="S19" s="61">
+      <c r="S19" s="55">
         <f t="shared" si="6"/>
         <v>1.4609203798392989</v>
       </c>
-      <c r="T19" s="61">
+      <c r="T19" s="55">
         <f t="shared" si="6"/>
         <v>1.1723329425556859</v>
       </c>
-      <c r="U19" s="61">
+      <c r="U19" s="55">
         <f t="shared" si="6"/>
         <v>1.4738393515106853</v>
       </c>
-      <c r="V19" s="61">
+      <c r="V19" s="55">
         <f t="shared" si="6"/>
         <v>1.3812154696132597</v>
       </c>
-      <c r="W19" s="61">
+      <c r="W19" s="55">
         <f t="shared" si="6"/>
         <v>1.1661807580174928</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="85">
         <v>11</v>
       </c>
       <c r="D20" s="5">
         <v>12</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="86">
         <v>13</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="67">
         <v>12</v>
       </c>
       <c r="G20" s="5">
@@ -9844,16 +11016,16 @@
       <c r="A21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="87">
         <v>20.9</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="88">
         <v>19.899999999999999</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="89">
         <v>24.38</v>
       </c>
       <c r="F21" s="18">
